--- a/production/tbs/templates/IMT_EXT2.xlsx
+++ b/production/tbs/templates/IMT_EXT2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dev\imt_gent\production\tbs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAA580-9524-458B-8839-F996FE9FBD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FB28A-8719-4230-8064-21BCBFD473B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,20 +19,12 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>This sheet was hidden in the template, and it becomes visible.</t>
   </si>
@@ -79,9 +71,6 @@
     <t>Ext. Name</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Youth Development Sessions                       (indicate # of children)</t>
   </si>
   <si>
@@ -91,12 +80,6 @@
     <t>Area : [onshow.a_coverage]</t>
   </si>
   <si>
-    <t xml:space="preserve">Interventions (LGUs, CSOs/NGOs) </t>
-  </si>
-  <si>
-    <t>[b2.col_[dc2.val;block=tbs:cell]]</t>
-  </si>
-  <si>
     <t>[b2.PROVINCE;block=tbs:row]</t>
   </si>
   <si>
@@ -121,28 +104,50 @@
     <t>[b2.EXT_NAME]</t>
   </si>
   <si>
-    <t>[b2.SEX]</t>
-  </si>
-  <si>
     <t>[b2.YDS;ope=tbs:num]</t>
   </si>
   <si>
-    <t>[onshow.col1]</t>
-  </si>
-  <si>
-    <t>[onshow.col2]</t>
-  </si>
-  <si>
-    <t>[onshow.col3]</t>
-  </si>
-  <si>
-    <t>[onshow.col4]</t>
-  </si>
-  <si>
-    <t>[onshow.col5]</t>
-  </si>
-  <si>
-    <t>[onshow.col6]</t>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Medical Services</t>
+  </si>
+  <si>
+    <t>Educational Program</t>
+  </si>
+  <si>
+    <t>Public Safety</t>
+  </si>
+  <si>
+    <t>Livelihood Program</t>
+  </si>
+  <si>
+    <t>[b2.col1;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[b2.col2;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[b2.col3;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>[b2.col4;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>[b2.col5;ope=tbs:num]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interventions 
+(LGUs, CSOs/NGOs) </t>
+  </si>
+  <si>
+    <t>LOWB</t>
+  </si>
+  <si>
+    <t>[b2.LOWB;ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -152,7 +157,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +247,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +315,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -325,75 +371,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -419,20 +410,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -457,47 +460,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -842,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,76 +831,76 @@
     <col min="3" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="8" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="8.5703125" customWidth="1"/>
+    <col min="12" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
@@ -941,9 +919,9 @@
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -951,158 +929,182 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="L7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:17" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="36"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="P8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>ROW()-9</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="15">
+        <f>SUM(L9:P9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="15">
-        <f ca="1">SUM( K9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="14">
+        <f ca="1">SUM( K9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="L10" s="15">
-        <f ca="1">SUM( L9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="L10" s="14">
+        <f ca="1">SUM( L9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="M10" s="15">
-        <f ca="1">SUM( M9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="M10" s="14">
+        <f ca="1">SUM( M9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="N10" s="15">
-        <f ca="1">SUM( N9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="N10" s="14">
+        <f ca="1">SUM( N9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="O10" s="15">
-        <f ca="1">SUM( O9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="O10" s="14">
+        <f ca="1">SUM( O9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="P10" s="15">
-        <f ca="1">SUM( P9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="P10" s="14">
+        <f ca="1">SUM( P9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="15">
-        <f ca="1">SUM( Q9                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="Q10" s="14">
+        <f ca="1">SUM(L10:P10)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="L7:P7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -1114,11 +1116,8 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:Q7"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production/tbs/templates/IMT_EXT2.xlsx
+++ b/production/tbs/templates/IMT_EXT2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FB28A-8719-4230-8064-21BCBFD473B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D605D-CB0F-412B-9C95-41C1333F34EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTHER_INTERV" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -820,21 +820,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="8" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="8" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
@@ -928,7 +928,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
@@ -973,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f>ROW()-9</f>
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1071,27 +1071,27 @@
         <v>16</v>
       </c>
       <c r="K10" s="14">
-        <f ca="1">SUM( K9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( K9                               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="L10" s="14">
-        <f ca="1">SUM( L9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( L9                               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="M10" s="14">
-        <f ca="1">SUM( M9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( M9                               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="N10" s="14">
-        <f ca="1">SUM( N9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( N9                               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="O10" s="14">
-        <f ca="1">SUM( O9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( O9                               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="P10" s="14">
-        <f ca="1">SUM( P9                              : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( P9                               : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="Q10" s="14">
@@ -1101,6 +1101,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="Q7:Q8"/>
@@ -1117,7 +1118,6 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1134,14 +1134,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
